--- a/dist/imoveis.xlsx
+++ b/dist/imoveis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -531,22 +531,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34008-056</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RuadasBromélias</t>
+          <t>Rua Mares de Montanhas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CondomínioVillageTerrasse</t>
+          <t>Vale dos Cristais</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,23 +571,23 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>850</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>R$ 13.490.000</t>
+          <t>R$ 12.900.000</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>R$ 1.400</t>
+          <t>R$ 2.000</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -597,24 +597,24 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>LUXUS IMOVEIS PREMIUM</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-village-terrasse-i-nova-lima-1300m2-id-2631065875/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-850m2-id-2667984443/</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2631065875</t>
+          <t>2667984443</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16/08/2024</t>
+          <t>24/06/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34007-097</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RuaMaresdeMontanhas</t>
+          <t>Rua Toledo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ValedosCristais</t>
+          <t>Vila Castela</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -669,45 +669,45 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>890</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>R$ 11.950.000</t>
+          <t>R$ 8.500.000</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>R$ 2.300</t>
+          <t>R$ 1.500</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>R$ 1</t>
+          <t>R$ 200</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Mafuz Imóveis de Luxo</t>
+          <t>TWA INVESTIMENTOS</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-680m2-id-2735490670/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-mobiliado-vila-castela-nova-lima-890m2-id-2640402169/</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2735490670</t>
+          <t>2640402169</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28/03/2023</t>
+          <t>23/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -717,22 +717,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34008-095</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AlamedadosRios</t>
+          <t>Rua Estrela da Manhã</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>225</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Vale dos Cristais</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -742,65 +742,65 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>R$ 4.300.000</t>
+          <t>R$ 14.700.000</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>R$ 980</t>
+          <t>R$ 1.720</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>R$ 2.100</t>
+          <t>R$ 706</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Alto Luxo BH</t>
+          <t>IBH IMOVEIS</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-602m2-id-2621295226/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-dos-cristais-nova-lima-1200m2-id-2737119262/</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2621295226</t>
+          <t>2737119262</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>23/12/2023</t>
+          <t>18/06/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -810,22 +810,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AlamedadosInconfidentes</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>55555</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -845,55 +845,55 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>279</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>R$ 6.500.000</t>
+          <t>R$ 2.850.000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 832</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 1.487</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Imoveis Alto Luxo</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-500m2-id-2678492882/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-279m2-id-2722725210/</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2678492882</t>
+          <t>2722725210</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03/08/2024</t>
+          <t>08/05/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -903,32 +903,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34009-559</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Alameda do Luar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>inexistente</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>inexistente</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>Pasárgada</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -948,45 +948,45 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>240</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>R$ 3.950.000</t>
+          <t>R$ 1.748.000</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>R$ 1.400</t>
+          <t>R$ 650</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>R$ 120</t>
+          <t>R$ 100</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>BH BROKERS</t>
+          <t>TWA INVESTIMENTOS</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-440m2-id-2732652527/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-varanda-pasargada-nova-lima-240m2-id-2631061791/</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2732652527</t>
+          <t>2631061791</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06/09/2024</t>
+          <t>08/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -996,22 +996,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RuaAlfa</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CondominioQuintasdoSol</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1041,45 +1041,45 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>427</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>R$ 3.700.000</t>
+          <t>R$ 3.380.000</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>R$ 1.500</t>
+          <t>R$ 1.100</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>R$ 980</t>
+          <t>R$ 2.150</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Vera Castro</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-quintas-do-sol-nova-lima-384m2-id-2740313122/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-427m2-id-2727158649/</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2740313122</t>
+          <t>2727158649</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>17/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-158</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Rua Paranapanema</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1114,65 +1114,65 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>309</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>R$ 8.300.000</t>
+          <t>R$ 3.690.000</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>R$ 1.387</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>R$ 654</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>MORATO IMÓVEIS</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-629m2-id-2653488567/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-varanda-alphaville-lagoa-dos-ingleses-nova-lima-309m2-id-2728977317/</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2653488567</t>
+          <t>2728977317</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19/12/2022</t>
+          <t>31/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1182,22 +1182,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-034</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AlamedadosRios</t>
+          <t>Alameda dos Inconfidentes</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1217,48 +1217,48 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>468</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>R$ 3.490.000</t>
+          <t>R$ 4.800.000</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>R$ 800</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>R$ 280</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>V12 NEGÓCIOS IMOBILIÁRIOS</t>
+          <t>MORATO IMÓVEIS</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-568m2-id-2600530880/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-468m2-id-2731910630/</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2600530880</t>
+          <t>2731910630</t>
         </is>
       </c>
     </row>
@@ -1275,12 +1275,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34008-056</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RuaMaresdeMontanhas</t>
+          <t>Rua Mares de Montanhas</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ValedosCristais</t>
+          <t>Vale dos Cristais</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1315,23 +1315,23 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>680</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>R$ 9.900.000</t>
+          <t>R$ 11.950.000</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>R$ 2.100</t>
+          <t>R$ 2.300</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-mg-750m2-id-2735492313/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-680m2-id-2735490670/</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2735492313</t>
+          <t>2735490670</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24/10/2022</t>
+          <t>19/06/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1368,22 +1368,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>36369</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1403,33 +1403,33 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>603</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>R$ 3.960.000</t>
+          <t>R$ 5.800.000</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>R$ 882</t>
+          <t>R$ 1.387</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>R$ 421</t>
+          <t>R$ 2.968</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1439,19 +1439,19 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-514m2-id-2587247845/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-603m2-id-2722892835/</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2587247845</t>
+          <t>2722892835</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>21/08/2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1461,22 +1461,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34012-094</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AlamedadasGralhas</t>
+          <t>Rua Vereda da Primavera</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>429</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ResidencialSul</t>
+          <t>Veredas das Geraes</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>350</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1517,34 +1517,34 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>R$ 572</t>
+          <t>R$ 850</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>R$ 250</t>
+          <t>R$ 608</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>CRX Imóveis</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-residencial-sul-nova-lima-650m2-id-2631064942/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-veredas-das-geraes-nova-lima-350m2-id-2651022040/</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2631064942</t>
+          <t>2651022040</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>05/10/2023</t>
+          <t>11/05/2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1554,12 +1554,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34004-510</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MorrodoChapéu</t>
+          <t>Rua Aroeira</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NovaLim</t>
+          <t>Mirante da Mata</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1589,55 +1589,55 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>677</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>R$ 4.500.000</t>
+          <t>R$ 6.500.000</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 840</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>R$ 2.845</t>
+          <t>R$ 1.300</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Silvinho Ximenes Imóveis</t>
+          <t>MORATO IMÓVEIS</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-unidade-de-vizinhancas-quintas-morro-do-chapeu-nova-lima-368m2-id-2660105846/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-mirante-da-mata-nova-lima-677m2-id-2631612377/</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2660105846</t>
+          <t>2631612377</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18/04/2024</t>
+          <t>09/09/2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1647,22 +1647,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RuadasBromélias</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>VillageTerrasseII</t>
+          <t>Condominio Alphaville</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1672,17 +1672,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1692,45 +1692,45 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>333</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>R$ 11.900.000</t>
+          <t>R$ 3.490.000</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>R$ 1.550</t>
+          <t>R$ 832</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>R$ 4.110</t>
+          <t>R$ 2.117</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-village-terrasse-ii-nova-lima-800m2-id-2708746937/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-333m2-id-2654802146/</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2708746937</t>
+          <t>2654802146</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16/08/2024</t>
+          <t>31/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1740,12 +1740,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-048</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AlamedadosManacás</t>
+          <t>Rua Cláudio Manoel</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>BosquedaRibeira</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1765,65 +1765,65 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>R$ 3.990.000</t>
+          <t>R$ 8.900.000</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>R$ 840</t>
+          <t>R$ 1.100</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>R$ 233</t>
+          <t>R$ 4.800</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Mafuz Imóveis de Luxo</t>
+          <t>MORATO IMÓVEIS</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-bosque-da-ribeira-nova-lima-1387m2-id-2735490011/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-1300m2-id-2731909424/</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2735490011</t>
+          <t>2731909424</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21/09/2024</t>
+          <t>13/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1833,32 +1833,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>258</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1878,45 +1878,45 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>545</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>R$ 3.980.000</t>
+          <t>R$ 7.990.000</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>R$ 1.188</t>
+          <t>R$ 832</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>R$ 1</t>
+          <t>R$ 2.450</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Mafuz Imóveis de Luxo</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-360m2-id-2744097369/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-545m2-id-2741997011/</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2744097369</t>
+          <t>2741997011</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21/06/2023</t>
+          <t>08/05/2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1926,22 +1926,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34003-040</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Via Solaris</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Condominio Quintas do Sol</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1971,45 +1971,45 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>400</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>R$ 4.980.000</t>
+          <t>R$ 4.490.000</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>R$ 1.100</t>
+          <t>R$ 1.200</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>R$ 396</t>
+          <t>R$ 352</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>TWA INVESTIMENTOS</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-alphaville-lagoa-dos-ingleses-nova-lima-406m2-id-2639712915/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-quintas-do-sol-nova-lima-400m2-id-2631063232/</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2639712915</t>
+          <t>2631063232</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>09/10/2024</t>
+          <t>11/05/2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2019,22 +2019,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-140</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Alameda dos Rios</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9687</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2064,45 +2064,45 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>254</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>R$ 1.980.000</t>
+          <t>R$ 2.690.000</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>R$ 1.165</t>
+          <t>R$ 1</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>R$ 2.900</t>
+          <t>R$ 1</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>OPAVENDI IMOBILIÁRIA DESCOMPLICADA LTDAOPAVENDI</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-jardim-alphaville-lagoa-dos-ingleses-nova-lima-264m2-id-2748119304/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-254m2-id-2562434091/</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2748119304</t>
+          <t>2562434091</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>28/10/2022</t>
+          <t>02/09/2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2112,22 +2112,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2137,17 +2137,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2157,23 +2157,23 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>629</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>R$ 3.780.000</t>
+          <t>R$ 8.300.000</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>R$ 832</t>
+          <t>R$ 1.387</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>R$ 1.143</t>
+          <t>R$ 654</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2183,19 +2183,19 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-293m2-id-2588468170/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-629m2-id-2653488567/</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2588468170</t>
+          <t>2653488567</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>31/08/2024</t>
+          <t>25/04/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2205,22 +2205,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RuaAldebaran</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>528</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CondominioQuintasdoSol</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2230,17 +2230,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2250,45 +2250,45 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>394</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>R$ 3.250.000</t>
+          <t>R$ 3.990.000</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>R$ 1</t>
+          <t>R$ 1.146</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>R$ 6.880</t>
+          <t>R$ 2.100</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Mafuz Imóveis de Luxo</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-quintas-do-sol-nova-lima-580m2-id-2738901224/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-394m2-id-2710837200/</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2738901224</t>
+          <t>2710837200</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26/06/2024</t>
+          <t>16/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2298,22 +2298,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34008-056</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Rua Mares de Montanhas</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>59999</t>
+          <t>569</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Vale dos Cristais</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2333,55 +2333,55 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>583</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>R$ 3.500.000</t>
+          <t>R$ 11.900.000</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>R$ 1.240</t>
+          <t>R$ 2.960</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>R$ 2.657</t>
+          <t>R$ 5.419</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>SO MANSOES IMOBILIARIA</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-580m2-id-2724504252/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-vale-dos-cristais-nova-lima-583m2-id-2742773209/</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2724504252</t>
+          <t>2742773209</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>08/04/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2391,22 +2391,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34007-343</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RuaElectra</t>
+          <t>Rua Cardeal</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CondominioQuintasdoSol</t>
+          <t>Estancia Serrana</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2436,45 +2436,45 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>851</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>R$ 6.000.000</t>
+          <t>R$ 12.000.000</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>R$ 1.509</t>
+          <t>R$ 2.550</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>R$ 3.135</t>
+          <t>R$ 5.600</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>SO MANSOES IMOBILIARIA</t>
+          <t>Zsul Imóveis</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-quintas-do-sol-nova-lima-426m2-id-2741143466/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-com-piscina-estancia-serrana-nova-lima-851m2-id-2705427697/</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2741143466</t>
+          <t>2705427697</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>07/08/2024</t>
+          <t>07/10/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2484,22 +2484,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-132</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RuaMaresdeMontanhas</t>
+          <t>Rua dos Rouxinóis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>555</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ValedosCristais</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2509,65 +2509,65 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>420</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>R$ 12.500.000</t>
+          <t>R$ 2.600.000</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>R$ 2.000</t>
+          <t>R$ 1.100</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>R$ 200</t>
+          <t>R$ 2.280</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Relações Imobiliárias</t>
+          <t>Master Broker</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-dos-cristais-nova-lima-850m2-id-2733423725/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-420m2-id-2747785181/</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2733423725</t>
+          <t>2747785181</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>22/07/2024</t>
+          <t>04/05/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2577,22 +2577,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34007-070</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RuaGama</t>
+          <t>Rua Grandolfo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>568</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CondominioQuintasdoSol</t>
+          <t>Vila Castela</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2622,45 +2622,45 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>348</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>R$ 4.890.000</t>
+          <t>R$ 4.980.000</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>R$ 1.500</t>
+          <t>R$ 1.680</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>R$ 200</t>
+          <t>R$ 5.795</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Elias Madi</t>
+          <t>MIRIAN DAYRELL IMOVEIS</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-quintas-do-sol-nova-lima-482m2-id-2730073335/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-castela-nova-lima-348m2-id-2712545604/</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2730073335</t>
+          <t>2712545604</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>23/08/2024</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2670,22 +2670,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RuaEstreladaManhã</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>194</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ValedosCristais</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2695,65 +2695,65 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>340</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>R$ 14.700.000</t>
+          <t>R$ 3.250.000</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>R$ 1.720</t>
+          <t>R$ 830</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>R$ 706</t>
+          <t>R$ 300</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>IBH IMOVEIS</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-dos-cristais-nova-lima-1200m2-id-2737119262/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-alphaville-lagoa-dos-ingleses-nova-lima-340m2-id-2568048405/</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2737119262</t>
+          <t>2568048405</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>29/06/2021</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2763,22 +2763,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34008-080</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RuaVeredadaMata</t>
+          <t>Rua da Névoa Transparente</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>VeredasdasGeraes</t>
+          <t>Vale dos Cristais</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2788,43 +2788,43 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>638</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>R$ 2.100.000</t>
+          <t>R$ 12.900.000</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 1.720</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>R$ 1.646</t>
+          <t>R$ 2.980</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2834,19 +2834,19 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-jardim-veredas-das-geraes-nova-lima-470m2-id-2525447571/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-vale-dos-cristais-nova-lima-638m2-id-2577446848/</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>2525447571</t>
+          <t>2577446848</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>03/10/2024</t>
+          <t>25/04/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2856,22 +2856,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AlamedaDavos</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>461</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>VilaAlpina</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2881,90 +2881,90 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>424</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>R$ 7.000.000</t>
+          <t>R$ 4.750.000</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>R$ 1.500</t>
+          <t>R$ 1.146</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>R$ 234</t>
+          <t>R$ 3.500</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Mafuz Imóveis de Luxo</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vila-alpina-nova-lima-600m2-id-2746851453/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-424m2-id-2710769199/</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>2746851453</t>
+          <t>2710769199</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>31/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Sobrado</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34011-027</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RuadasCodornas</t>
+          <t>Rua Cordélia</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EstanciaSerrana</t>
+          <t>Vale do Sol</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2984,22 +2984,22 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>288</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>R$ 3.499.980</t>
+          <t>R$ 880.000</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -3010,29 +3010,29 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>R$ 534</t>
+          <t>R$ 1.200</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>Antonino Moura Neto</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-estancia-serrana-nova-lima-474m2-id-2631063406/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-sobrados-4-quartos-vale-do-sol-nova-lima-288m2-id-2732030228/</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2631063406</t>
+          <t>2732030228</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/09/2024</t>
+          <t>28/06/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3042,22 +3042,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RuaMackenzie</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>22225</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>JardimCanada</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3082,50 +3082,50 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>R$ 2.200.000</t>
+          <t>R$ 22.000.000</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>não informado</t>
+          <t>R$ 5.600</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>R$ 3.000</t>
+          <t>R$ 5.860</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>La Terra Imóveis</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-jardim-canada-nova-lima-436m2-id-2746127294/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-1000m2-id-2724984273/</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>2746127294</t>
+          <t>2724984273</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/09/2024</t>
+          <t>20/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3135,22 +3135,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RuaAmazonas</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2233</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CostaLaguna</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3180,45 +3180,45 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>275</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>R$ 6.780.000</t>
+          <t>R$ 2.990.000</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>R$ 880</t>
+          <t>R$ 832</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>R$ 2.400</t>
+          <t>R$ 2.030</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Kaique Parreira Imoveis</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-mobiliado-alphaville-lagoa-dos-ingleses-nova-lima-523m2-id-2746188528/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-275m2-id-2736224750/</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>2746188528</t>
+          <t>2736224750</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>17/05/2024</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3228,22 +3228,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34004-896</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AlamedadasTulipas</t>
+          <t>Alameda do Cruzeiro do Sul</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ResidencialIpêdaSerra</t>
+          <t>Condominio Ville de Montagne</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3268,75 +3268,75 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>461</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>R$ 5.500.000</t>
+          <t>R$ 2.700.000</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>R$ 790</t>
+          <t>R$ 500</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 372</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>ROSCOE CONSULTORIA IMOBILIARIA LTDA</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-bosque-residencial-do-jambreiro-nova-lima-429m2-id-2715562522/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-ville-de-montagne-nova-lima-461m2-id-2664154108/</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2715562522</t>
+          <t>2664154108</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31/07/2024</t>
+          <t>24/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sobrado</t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RuaCordélia</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>236</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ValedoSol</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3346,65 +3346,65 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>440</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>R$ 880.000</t>
+          <t>R$ 2.990.000</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 1.146</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>R$ 1.200</t>
+          <t>R$ 2.896</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Antonino Moura Neto</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-sobrados-4-quartos-vale-do-sol-nova-lima-288m2-id-2732030228/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-440m2-id-2730513203/</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2732030228</t>
+          <t>2730513203</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>08/05/2023</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3414,22 +3414,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34004-306</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AvenidaAlpina</t>
+          <t>Alameda das Gralhas</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>VilaAlpina</t>
+          <t>Residencial Sul</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3449,55 +3449,55 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>650</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>R$ 4.837.000</t>
+          <t>R$ 2.890.000</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>R$ 1.390</t>
+          <t>R$ 572</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>R$ 260</t>
+          <t>R$ 250</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Corretores Net</t>
+          <t>TWA INVESTIMENTOS</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-alpina-nova-lima-1400m2-id-2697575805/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-residencial-sul-nova-lima-650m2-id-2631064942/</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>2697575805</t>
+          <t>2631064942</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>19/06/2024</t>
+          <t>23/01/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3507,22 +3507,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-273</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Rua dos Motoristas</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>36369</t>
+          <t>86</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Ville Des Lacs</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3542,33 +3542,33 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>431</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>R$ 5.800.000</t>
+          <t>R$ 2.600.000</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>R$ 1.387</t>
+          <t>R$ 450</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>R$ 2.968</t>
+          <t>R$ 910</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3578,19 +3578,19 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-603m2-id-2722892835/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-balneario-agua-limpa-nova-lima-431m2-id-2685437066/</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>2722892835</t>
+          <t>2685437066</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10/04/2021</t>
+          <t>29/06/2021</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3600,22 +3600,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34012-020</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Rua Vereda da Mata</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Veredas das Geraes</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3635,55 +3635,55 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>470</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>R$ 5.000.000</t>
+          <t>R$ 2.100.000</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>R$ 1.007</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>R$ 2.000</t>
+          <t>R$ 1.646</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Lamounier Imóveis</t>
+          <t>SO MANSOES IMOBILIARIA</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-5-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-500m2-id-2516453104/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-jardim-veredas-das-geraes-nova-lima-470m2-id-2525447571/</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>2516453104</t>
+          <t>2525447571</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>16/05/2024</t>
+          <t>09/10/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3693,22 +3693,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AlamedadosRios</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>8889</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3738,45 +3738,45 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>401</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>R$ 3.440.000</t>
+          <t>R$ 4.690.000</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>R$ 770</t>
+          <t>R$ 832</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>R$ 230</t>
+          <t>R$ 1.800</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>ALPHA IMÓVEIS PREMIUM</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-369m2-id-2715390649/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-401m2-id-2748184598/</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>2715390649</t>
+          <t>2748184598</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>25/04/2024</t>
+          <t>30/09/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3786,22 +3786,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34001-319</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Rua Amazonas</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Costa Laguna</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3831,45 +3831,45 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>523</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>R$ 3.490.000</t>
+          <t>R$ 6.780.000</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>R$ 832</t>
+          <t>R$ 880</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>R$ 2.230</t>
+          <t>R$ 2.400</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>Kaique Parreira Imoveis</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-academia-alphaville-lagoa-dos-ingleses-nova-lima-291m2-id-2710848872/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-mobiliado-alphaville-lagoa-dos-ingleses-nova-lima-523m2-id-2746188528/</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>2710848872</t>
+          <t>2746188528</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>02/05/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3879,22 +3879,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-273</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RuaAldebaran</t>
+          <t>Rua dos Motoristas</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CondominioVilledeMontagne</t>
+          <t>Ville Des Lacs</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3904,65 +3904,65 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>300</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>R$ 10.700.000</t>
+          <t>R$ 2.450.000</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>R$ 683</t>
+          <t>R$ 550</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>R$ 100</t>
+          <t>R$ 1.980</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Corretores Net</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-quintas-do-sol-nova-lima-2200m2-id-2697576524/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-area-de-lazer-balneario-agua-limpa-nova-lima-300m2-id-2712205526/</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>2697576524</t>
+          <t>2712205526</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>04/09/2024</t>
+          <t>16/08/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3972,12 +3972,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34007-085</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RuaTocantins</t>
+          <t>Rua Granada</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Vila Castela</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4017,45 +4017,45 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>520</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>R$ 11.000.000</t>
+          <t>R$ 5.950.000</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>R$ 990</t>
+          <t>R$ 1.400</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>R$ 4.800</t>
+          <t>R$ 400</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>MORATO IMÓVEIS</t>
+          <t>Mafuz Imóveis de Luxo</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-760m2-id-2739735006/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-castela-nova-lima-mg-520m2-id-2735489999/</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>2739735006</t>
+          <t>2735489999</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>23/09/2024</t>
+          <t>22/07/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4065,22 +4065,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>997</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -4110,23 +4110,23 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>600</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>R$ 3.650.000</t>
+          <t>R$ 7.390.000</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>R$ 800</t>
+          <t>R$ 1.387</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>R$ 2.400</t>
+          <t>R$ 2.456</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -4136,19 +4136,19 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-372m2-id-2744463512/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-600m2-id-2730017635/</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2744463512</t>
+          <t>2730017635</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11/04/2024</t>
+          <t>09/10/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4158,22 +4158,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>9687</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4203,23 +4203,23 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>264</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>R$ 7.390.000</t>
+          <t>R$ 1.980.000</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>R$ 1.387</t>
+          <t>R$ 1.165</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>R$ 2.442</t>
+          <t>R$ 2.900</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -4229,19 +4229,19 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-alphaville-lagoa-dos-ingleses-nova-lima-600m2-id-2706500759/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-jardim-alphaville-lagoa-dos-ingleses-nova-lima-264m2-id-2748119304/</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>2706500759</t>
+          <t>2748119304</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>18/04/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4251,12 +4251,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-108</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RuaVozdasFlores</t>
+          <t>Rua das Bromélias</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ValedosCristais</t>
+          <t>Village Terrasse II</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -4276,39 +4276,43 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>800</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>R$ 14.999.500</t>
+          <t>R$ 11.900.000</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>R$ 1.300</t>
+          <t>R$ 1.550</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>R$ 250</t>
+          <t>R$ 4.110</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4318,19 +4322,19 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-680m2-id-2631064090/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-village-terrasse-ii-nova-lima-800m2-id-2708746937/</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>2631064090</t>
+          <t>2708746937</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>11/05/2023</t>
+          <t>24/10/2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4340,22 +4344,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RuaAroeira</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MirantedaMata</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -4365,7 +4369,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4375,55 +4379,55 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>514</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>R$ 8.000.000</t>
+          <t>R$ 3.960.000</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>R$ 680</t>
+          <t>R$ 882</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>R$ 2.880</t>
+          <t>R$ 421</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>MORATO IMÓVEIS</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-mirante-da-mata-nova-lima-854m2-id-2631614670/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-514m2-id-2587247845/</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>2631614670</t>
+          <t>2587247845</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>25/09/2024</t>
+          <t>16/08/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4433,22 +4437,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34008-056</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>AlamedaSãoBernardo</t>
+          <t>Rua Mares de Montanhas</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VilaAlpina</t>
+          <t>Vale dos Cristais</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4458,65 +4462,65 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>750</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>R$ 6.280.000</t>
+          <t>R$ 9.900.000</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>R$ 1.400</t>
+          <t>R$ 2.100</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>R$ 3.612</t>
+          <t>R$ 1</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>SO MANSOES IMOBILIARIA</t>
+          <t>Mafuz Imóveis de Luxo</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-spa-com-hidromassagem-vila-alpina-nova-lima-650m2-id-2744855604/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-750m2-id-2735492313/</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2744855604</t>
+          <t>2735492313</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>28/06/2024</t>
+          <t>16/08/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4526,22 +4530,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34007-386</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Alameda dos Manacás</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>22225</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Bosque da Ribeira</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4551,12 +4555,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4566,50 +4570,50 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1387</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>R$ 22.000.000</t>
+          <t>R$ 3.990.000</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>R$ 5.600</t>
+          <t>R$ 840</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>R$ 5.860</t>
+          <t>R$ 233</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>Mafuz Imóveis de Luxo</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-1000m2-id-2724984273/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-bosque-da-ribeira-nova-lima-1387m2-id-2735490011/</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>2724984273</t>
+          <t>2735490011</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>24/06/2023</t>
+          <t>26/07/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4619,22 +4623,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34000-045</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RuaToledo</t>
+          <t>Rua Doutor Cássio Magnani</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>600</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>VilaCastela</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4644,12 +4648,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4664,45 +4668,45 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>430</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>R$ 8.500.000</t>
+          <t>R$ 2.890.000</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>R$ 1.500</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>R$ 200</t>
+          <t>R$ 85</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>ROSCOE CONSULTORIA IMOBILIARIA LTDA</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-mobiliado-vila-castela-nova-lima-890m2-id-2640402169/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-centro-nova-lima-430m2-id-2730846224/</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>2640402169</t>
+          <t>2730846224</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>08/04/2024</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4712,22 +4716,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AlamedadasCastanheiras</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>OuroVelhoMansões</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4737,65 +4741,65 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>550</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>R$ 2.599.000</t>
+          <t>R$ 6.790.000</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>R$ 850</t>
+          <t>R$ 832</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>R$ 1.501</t>
+          <t>R$ 400</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>BE SOLUCOES IMOBILIARIAS LTDA</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-ouro-velho-mansoes-nova-lima-1000m2-id-2705257502/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-550m2-id-2676629251/</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>2705257502</t>
+          <t>2676629251</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>16/08/2024</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4805,22 +4809,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-026</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RuaMaresdeMontanhas</t>
+          <t>Rua Diamantina</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ValedosCristais</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4830,7 +4834,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4845,50 +4849,50 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>432</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>R$ 9.900.000</t>
+          <t>R$ 2.800.000</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>R$ 2.100</t>
+          <t>R$ 1.145</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>R$ 1</t>
+          <t>R$ 228</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Mafuz Imóveis de Luxo</t>
+          <t>Master Broker</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-750m2-id-2735492313/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-432m2-id-2671061936/</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2735492313</t>
+          <t>2671061936</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>08/01/2021</t>
+          <t>19/09/2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4898,22 +4902,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-092</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>AlamedadeAldebaran</t>
+          <t>Rua dos Flamboyants</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CondominioVilledeMontagne</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4923,65 +4927,65 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>298</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>R$ 10.700.000</t>
+          <t>R$ 2.689.020</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 1</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>R$ 4.066</t>
+          <t>R$ 1</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>SO MANSOES IMOBILIARIA</t>
+          <t>USUÁRIO NEWCORE</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-ville-de-montagne-nova-lima-2200m2-id-2507257278/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-alphaville-lagoa-dos-ingleses-nova-lima-298m2-id-2743486692/</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>2507257278</t>
+          <t>2743486692</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>18/06/2024</t>
+          <t>10/05/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4991,22 +4995,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>AvenidaPicadilly</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>55555</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AlphavilleLagoaDosIngleses</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -5016,7 +5020,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>NovaLima</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -5026,7 +5030,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -5036,12 +5040,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>271</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>R$ 2.850.000</t>
+          <t>R$ 2.750.000</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -5052,7 +5056,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>R$ 1.487</t>
+          <t>R$ 2.028</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -5062,19 +5066,19 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-279m2-id-2722725210/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-academia-alphaville-lagoa-dos-ingleses-nova-lima-271m2-id-2713870172/</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>2722725210</t>
+          <t>2713870172</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10/08/2024</t>
+          <t>14/10/2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5084,83 +5088,3989 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nao encontrado</t>
+          <t>34009-254</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>Alameda das Candeias</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>712</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>Macacos</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>Nova Lima</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>282</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>R$ 10.800.000</t>
+          <t>R$ 750.000</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Bens de Raiz Imoveis</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-parque-jardim-amanda-nova-lima-282m2-id-2749313849/</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>2749313849</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>23/09/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>58785</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>R$ 6.790.000</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>R$ 2.200</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-438m2-id-2744421711/</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>2744421711</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20/07/2023</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>34018-146</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Rua Madeira</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>R$ 3.330.000</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>R$ 850</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>R$ 263</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-450m2-id-2645495472/</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2645495472</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>14/10/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>33669</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>R$ 3.350.000</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
           <t>R$ 1.890</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>R$ 4.920</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-257m2-id-2749248959/</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2749248959</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>08/01/2021</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>34004-890</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Alameda de Aldebaran</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Condominio Ville de Montagne</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>R$ 10.700.000</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>R$ 4.066</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-ville-de-montagne-nova-lima-2200m2-id-2507257278/</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>2507257278</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>19/09/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>34011-042</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Rua Ganimedes</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Vale do Sol</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>R$ 2.499.600</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>USUÁRIO NEWCORE</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-do-sol-nova-lima-296m2-id-2743486415/</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>2743486415</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>34008-071</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Rua Azul da Amplidão</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>R$ 14.700.000</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>R$ 670</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>R$ 1.200</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Marcelo Dornellas</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-dos-cristais-nova-lima-1200m2-id-2655738063/</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>2655738063</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>21/08/2023</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>34007-082</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Avenida Reis Magos</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Vila Castela</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>R$ 11.500.000</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>R$ 1.900</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>R$ 250</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Antônio Jorge Salum Junior</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-vila-castela-nova-lima-mg-800m2-id-2650949370/</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>2650949370</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>25/04/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>R$ 2.990.000</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>R$ 1.146</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>R$ 2.400</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-270m2-id-2710840328/</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>2710840328</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>06/12/2023</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>R$ 3.590.000</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>R$ 358</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-387m2-id-2674237398/</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>2674237398</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>21/08/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>34008-101</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rua Tarde no Planeta</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1171</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Condominio Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>R$ 18.500.000</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>R$ 2.958</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>R$ 6.074</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-dos-cristais-nova-lima-760m2-id-2736487243/</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>2736487243</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10/04/2021</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>R$ 5.000.000</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>R$ 1.007</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>R$ 2.000</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Lamounier Imóveis</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-5-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-500m2-id-2516453104/</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>2516453104</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>23/07/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>34008-050</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Avenida Constelações</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>R$ 13.000.000</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>não informado</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>não informado</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Silvana Lima Imoveis</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-com-piscina-vale-dos-cristais-nova-lima-950m2-id-2730311228/</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>2730311228</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>22/07/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>34018-000</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Avenida Regent</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>R$ 2.800.000</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>R$ 1.146</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>R$ 476</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>REALIZA IMOVEIS</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-350m2-id-2730056625/</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>2730056625</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>21/08/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>34008-083</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Rua Noite de Estio</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Condominio Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>R$ 11.900.000</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>R$ 2.958</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>R$ 4.327</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-vale-dos-cristais-nova-lima-526m2-id-2736485229/</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>2736485229</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>19/12/2022</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>34018-140</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Alameda dos Rios</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>R$ 3.490.000</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>R$ 800</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>R$ 280</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>V12 NEGÓCIOS IMOBILIÁRIOS</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-568m2-id-2600530880/</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>2600530880</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>17/11/2021</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>34003-298</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Rua dos Alpes</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Alto das Quintas</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>R$ 2.090.000</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>R$ 1.040</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Suacasanumclick</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-alto-das-quintas-nova-lima-350m2-id-2541623324/</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>2541623324</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>26/07/2018</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>34007-294</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Avenida Alpina</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Vila Alpina</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>R$ 4.800.000</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>R$ 1.390</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>R$ 3.000</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Zsul Imóveis</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vila-alpina-nova-lima-750m2-id-1039051546/</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>1039051546</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>23/12/2023</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>34007-209</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Alameda Serra da Mantiqueira</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Vila del Rey</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>R$ 4.500.000</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>R$ 1.500</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>R$ 3.500</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Zsul Imóveis</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-com-piscina-vila-del-rey-nova-lima-551m2-id-2678534895/</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>2678534895</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>11/04/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>R$ 7.390.000</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>R$ 1.387</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>R$ 2.442</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-alphaville-lagoa-dos-ingleses-nova-lima-600m2-id-2706500759/</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>2706500759</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>07/08/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>34007-970</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Avenida Toronto</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Jardim Canada</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>R$ 750.000</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Jefferson E. O. Motta</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-jardim-canada-nova-lima-380m2-id-2733497529/</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>2733497529</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>14/08/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>34018-284</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Rua dos Aviadores</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Balneario Água Limpa</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>R$ 2.300.000</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>R$ 650</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>não informado</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>MEL IMOVEIS</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-balneario-agua-limpa-nova-lima-400m2-id-2735051217/</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>2735051217</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>31/08/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>34003-085</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Rua Aldebaran</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Condominio Quintas do Sol</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>R$ 3.250.000</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>R$ 6.880</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-quintas-do-sol-nova-lima-580m2-id-2738901224/</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>2738901224</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>22/09/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>34011-093</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Avenida Quinta Avenida</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Vale do Sol</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>R$ 1.099.680</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>USUÁRIO NEWCORE</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-vale-do-sol-nova-lima-254m2-id-2744261184/</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>2744261184</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>R$ 13.900.000</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>R$ 3.332</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>R$ 1.520</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-811m2-id-2683738839/</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>2683738839</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>34007-076</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Rua San Marino</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Vila Castela</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>R$ 9.800.000</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>R$ 3.080</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-castela-nova-lima-519m2-id-2741692119/</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>2741692119</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>17/05/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>34004-860</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Alameda das Tulipas</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Residencial Ipê da Serra</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>R$ 5.500.000</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>R$ 790</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>ROSCOE CONSULTORIA IMOBILIARIA LTDA</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-bosque-residencial-do-jambreiro-nova-lima-429m2-id-2715562522/</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>2715562522</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>27/08/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>34004-840</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Alameda Perimetral das Orquídeas</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bosque Residencial do Jambreiro</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>R$ 5.380.000</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>R$ 800</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>R$ 2.520</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
         <is>
           <t>MORATO IMÓVEIS</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-1100m2-id-2734103751/</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>2734103751</t>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-bosque-residencial-do-jambreiro-nova-lima-750m2-id-2737750725/</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>2737750725</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>R$ 3.900.000</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>R$ 1.100</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>R$ 2.300</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-443m2-id-2723126335/</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>2723126335</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>23/09/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>R$ 3.650.000</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>R$ 800</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>R$ 2.400</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-372m2-id-2744463512/</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>2744463512</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>34007-282</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Alameda Monte Grappa</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Vila Alpina</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>R$ 7.950.000</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>R$ 1.200</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>R$ 250</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-alpina-nova-lima-580m2-id-2746357399/</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>2746357399</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>08/10/2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>34018-252</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Rua do Japão</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Ville Des Lacs</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>R$ 2.000.000</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>R$ 650</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>R$ 1.200</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Norte Sul Imóveis - Buritis</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-balneario-agua-limpa-nova-lima-490m2-id-2748024412/</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>2748024412</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>34008-056</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Rua Mares de Montanhas</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>R$ 9.900.000</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>R$ 2.100</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-mg-750m2-id-2735492313/</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>2735492313</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>34007-294</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Avenida Alpina</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Vila Alpina</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>R$ 4.900.000</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>R$ 1.642</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>R$ 236</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-alpina-nova-lima-550m2-id-2735492225/</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>2735492225</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>07/08/2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>34008-056</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Rua Mares de Montanhas</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>R$ 12.500.000</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>R$ 2.000</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>R$ 200</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Relações Imobiliárias</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-dos-cristais-nova-lima-850m2-id-2733423725/</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>2733423725</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>R$ 4.945.000</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>R$ 1.190</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>R$ 150</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-377m2-id-2631063453/</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>2631063453</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>34018-140</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Alameda dos Rios</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>R$ 3.440.000</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>R$ 770</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>R$ 230</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>ALPHA IMÓVEIS PREMIUM</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-369m2-id-2715390649/</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>2715390649</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>24/07/2024</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>34004-306</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Alameda das Gralhas</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Residencial Sul</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>R$ 2.900.000</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>R$ 572</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>R$ 2.365</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-residencial-sul-nova-lima-557m2-id-2730421620/</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>2730421620</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>27/05/2023</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>R$ 7.480.000</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>R$ 1.249</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>R$ 387</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-alphaville-lagoa-dos-ingleses-nova-lima-644m2-id-2635115980/</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>2635115980</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>34003-082</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Rua Antares</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Condominio Quintas do Sol</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>R$ 4.550.000</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>R$ 1.050</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>R$ 4.965</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-quintas-do-sol-nova-lima-590m2-id-2735492229/</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>2735492229</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>10/05/2022</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>34007-227</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Praça Pico da Bandeira</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Vila del Rey</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>R$ 4.499.000</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>R$ 1.631</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>R$ 4.208</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Italo Tobias Negócios Imobiliários</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-vila-del-rey-nova-lima-707m2-id-2562224010/</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>2562224010</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>22/07/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>34003-064</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Rua Gama</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Condominio Quintas do Sol</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>R$ 4.890.000</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>R$ 1.500</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>R$ 200</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Elias Madi</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-quintas-do-sol-nova-lima-482m2-id-2730073335/</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>2730073335</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>03/01/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>34008-056</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Rua Mares de Montanhas</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>R$ 9.000.000</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>R$ 1.500</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>R$ 300</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-vale-dos-cristais-nova-lima-750m2-id-2680687695/</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>2680687695</t>
         </is>
       </c>
     </row>

--- a/dist/imoveis.xlsx
+++ b/dist/imoveis.xlsx
@@ -521,7 +521,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>14/09/2023</t>
+          <t>26/06/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -531,22 +531,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>34008-071</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rua Azul da Amplidão</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>59999</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vale dos Cristais</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -561,60 +561,60 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>580</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>R$ 14.700.000</t>
+          <t>R$ 3.500.000</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>R$ 670</t>
+          <t>R$ 1.240</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>R$ 1.200</t>
+          <t>R$ 2.657</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Marcelo Dornellas</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-dos-cristais-nova-lima-1200m2-id-2655738063/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-580m2-id-2724504252/</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2655738063</t>
+          <t>2724504252</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06/03/2023</t>
+          <t>09/10/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -624,17 +624,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>34018-156</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rua Piracicaba</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>8889</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -669,45 +669,45 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>401</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>R$ 3.700.000</t>
+          <t>R$ 4.690.000</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>R$ 1</t>
+          <t>R$ 832</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>R$ 1</t>
+          <t>R$ 1.800</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>OPAVENDI IMOBILIÁRIA DESCOMPLICADA LTDAOPAVENDI</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-377m2-id-2616928015/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-401m2-id-2748184598/</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2616928015</t>
+          <t>2748184598</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -717,22 +717,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>34000-045</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rua Doutor Cássio Magnani</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>584</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -762,45 +762,45 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>430</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>R$ 2.300.000</t>
+          <t>R$ 3.990.000</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 1.100</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>R$ 230</t>
+          <t>R$ 2.435</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-centro-nova-lima-369m2-id-2661420659/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-430m2-id-2711803001/</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2661420659</t>
+          <t>2711803001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16/08/2024</t>
+          <t>21/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>34003-082</t>
+          <t>34007-215</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rua Antares</t>
+          <t>Alameda Serra do Cabral</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Condominio Quintas do Sol</t>
+          <t>Vila del Rey</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -840,60 +840,60 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>776</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>R$ 4.550.000</t>
+          <t>R$ 6.800.000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>R$ 1.050</t>
+          <t>R$ 1.240</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>R$ 4.965</t>
+          <t>R$ 310</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Mafuz Imóveis de Luxo</t>
+          <t>ANUAR DONATO</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-quintas-do-sol-nova-lima-590m2-id-2735492229/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-del-rey-nova-lima-776m2-id-2744067682/</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2735492229</t>
+          <t>2744067682</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10/01/2023</t>
+          <t>19/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -903,22 +903,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>34018-006</t>
+          <t>34011-042</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Avenida Princesa Diana</t>
+          <t>Rua Ganimedes</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Costa Laguna</t>
+          <t>Vale do Sol</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -948,45 +948,45 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>296</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>R$ 3.590.000</t>
+          <t>R$ 2.499.490</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>R$ 900</t>
+          <t>R$ 1</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>R$ 2.900</t>
+          <t>R$ 1</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Metropolitan Corretora</t>
+          <t>USUÁRIO NEWCORE</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-5-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-387m2-id-2604673484/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-do-sol-nova-lima-296m2-id-2743486415/</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2604673484</t>
+          <t>2743486415</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>07/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -996,22 +996,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>34009-550</t>
+          <t>34007-970</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avenida Manuel Bandeira</t>
+          <t>Avenida Toronto</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pasárgada</t>
+          <t>Jardim Canada</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1031,55 +1031,55 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>380</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>R$ 2.300.000</t>
+          <t>R$ 750.000</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>R$ 1.000</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>R$ 257</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>Jefferson E. O. Motta</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-pasargada-nova-lima-320m2-id-2727373579/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-jardim-canada-nova-lima-380m2-id-2733497529/</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2727373579</t>
+          <t>2733497529</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03/04/2024</t>
+          <t>15/11/2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>34003-070</t>
+          <t>34018-084</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rua Perseus</t>
+          <t>Rua dos Araçás</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Condominio Quintas do Sol</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1129,50 +1129,50 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>618</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>R$ 3.685.900</t>
+          <t>R$ 6.450.000</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>R$ 1.600</t>
+          <t>R$ 1.065</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 2.498</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-quintas-do-sol-nova-lima-405m2-id-2703591278/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-618m2-id-2669554212/</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2703591278</t>
+          <t>2669554212</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03/05/2024</t>
+          <t>28/06/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>22225</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1217,33 +1217,33 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>R$ 7.650.000</t>
+          <t>R$ 22.000.000</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>R$ 1.152</t>
+          <t>R$ 5.600</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>R$ 2.460</t>
+          <t>R$ 5.860</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1253,19 +1253,19 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-653m2-id-2712401910/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-1000m2-id-2724984273/</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2712401910</t>
+          <t>2724984273</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/09/2024</t>
+          <t>25/10/2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1275,22 +1275,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>34001-319</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rua Amazonas</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Costa Laguna</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1315,50 +1315,50 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>464</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>R$ 6.780.000</t>
+          <t>R$ 3.200.000</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>R$ 880</t>
+          <t>R$ 734</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>R$ 2.400</t>
+          <t>R$ 439</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Kaique Parreira Imoveis</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-mobiliado-alphaville-lagoa-dos-ingleses-nova-lima-523m2-id-2746188528/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-464m2-id-2587578095/</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2746188528</t>
+          <t>2587578095</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06/08/2024</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1368,22 +1368,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>34004-300</t>
+          <t>34008-080</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Alameda das Graúnas</t>
+          <t>Rua da Névoa Transparente</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Residencial Sul</t>
+          <t>Vale dos Cristais</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1413,45 +1413,45 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>638</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>R$ 4.500.000</t>
+          <t>R$ 12.900.000</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>R$ 700</t>
+          <t>R$ 1.720</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>R$ 1.400</t>
+          <t>R$ 2.980</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>MORATO IMÓVEIS</t>
+          <t>SO MANSOES IMOBILIARIA</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-residencial-sul-nova-lima-800m2-id-2733209743/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-vale-dos-cristais-nova-lima-638m2-id-2577446848/</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2733209743</t>
+          <t>2577446848</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>16/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1461,22 +1461,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>34007-215</t>
+          <t>34007-085</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Alameda Serra do Cabral</t>
+          <t>Rua Granada</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vila del Rey</t>
+          <t>Vila Castela</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1496,55 +1496,55 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>520</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>R$ 4.499.000</t>
+          <t>R$ 5.950.000</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>R$ 1.380</t>
+          <t>R$ 1.400</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>R$ 450</t>
+          <t>R$ 400</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Corretores Net</t>
+          <t>Mafuz Imóveis de Luxo</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-del-rey-nova-lima-3000m2-id-2697411488/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-castela-nova-lima-mg-520m2-id-2735489999/</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2697411488</t>
+          <t>2735489999</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19/09/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1554,22 +1554,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>34018-092</t>
+          <t>34007-294</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rua dos Flamboyants</t>
+          <t>Avenida Alpina</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>952</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Alphaville Lagoa Dos Ingleses</t>
+          <t>Vila Alpina</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1594,50 +1594,50 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>R$ 2.689.020</t>
+          <t>R$ 4.837.000</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>R$ 1</t>
+          <t>R$ 1.390</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>R$ 1</t>
+          <t>R$ 260</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>USUÁRIO NEWCORE</t>
+          <t>Corretores Net</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-alphaville-lagoa-dos-ingleses-nova-lima-298m2-id-2743486692/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-alpina-nova-lima-1400m2-id-2697575805/</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2743486692</t>
+          <t>2697575805</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25/04/2024</t>
+          <t>08/04/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>34018-004</t>
+          <t>34018-140</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Avenida Picadilly</t>
+          <t>Alameda dos Rios</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1677,12 +1677,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1692,45 +1692,45 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>318</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>R$ 3.990.000</t>
+          <t>R$ 2.900.000</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>R$ 1.146</t>
+          <t>R$ 905</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>R$ 2.100</t>
+          <t>R$ 185</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>TWA INVESTIMENTOS</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-394m2-id-2710837200/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-academia-alphaville-lagoa-dos-ingleses-nova-lima-318m2-id-2705145774/</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2710837200</t>
+          <t>2705145774</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>15/10/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1740,17 +1740,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>34018-026</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rua Diamantina</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>6988</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1785,45 +1785,45 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>357</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>R$ 2.800.000</t>
+          <t>R$ 4.980.000</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>R$ 1.145</t>
+          <t>R$ 1.388</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>R$ 228</t>
+          <t>R$ 2.948</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Master Broker</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-432m2-id-2671061936/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-357m2-id-2749518658/</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2671061936</t>
+          <t>2749518658</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11/05/2022</t>
+          <t>16/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1833,22 +1833,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>34018-140</t>
+          <t>34008-056</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Alameda dos Rios</t>
+          <t>Rua Mares de Montanhas</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Alphaville Lagoa Dos Ingleses</t>
+          <t>Vale dos Cristais</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1868,55 +1868,55 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>750</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>R$ 2.690.000</t>
+          <t>R$ 9.900.000</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
+          <t>R$ 2.100</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>R$ 1</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>R$ 1</t>
-        </is>
-      </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>OPAVENDI IMOBILIÁRIA DESCOMPLICADA LTDAOPAVENDI</t>
+          <t>Mafuz Imóveis de Luxo</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-254m2-id-2562434091/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-mg-750m2-id-2735492313/</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2562434091</t>
+          <t>2735492313</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08/07/2024</t>
+          <t>27/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1926,17 +1926,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>34018-004</t>
+          <t>34001-319</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Avenida Picadilly</t>
+          <t>Rua Amazonas</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1966,50 +1966,50 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>666</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>R$ 3.950.000</t>
+          <t>R$ 7.800.000</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>R$ 1.387</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>R$ 2.456</t>
+          <t>R$ 3.360</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>MORATO IMÓVEIS</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-370m2-id-2727152149/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-666m2-id-2737751233/</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2727152149</t>
+          <t>2737751233</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>21/06/2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2019,22 +2019,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>34004-306</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Alameda das Gralhas</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Residencial Sul</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2054,55 +2054,55 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>406</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>R$ 2.890.000</t>
+          <t>R$ 4.980.000</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>R$ 572</t>
+          <t>R$ 1.100</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>R$ 250</t>
+          <t>R$ 396</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-residencial-sul-nova-lima-650m2-id-2631064942/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-alphaville-lagoa-dos-ingleses-nova-lima-406m2-id-2639712915/</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2631064942</t>
+          <t>2639712915</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>23/08/2024</t>
+          <t>23/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2112,22 +2112,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>34008-095</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rua Estrela da Manhã</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>58785</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vale dos Cristais</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2142,60 +2142,60 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>438</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>R$ 14.700.000</t>
+          <t>R$ 6.790.000</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>R$ 1.720</t>
+          <t>R$ 832</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>R$ 706</t>
+          <t>R$ 2.200</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>IBH IMOVEIS</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-dos-cristais-nova-lima-1200m2-id-2737119262/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-438m2-id-2744421711/</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2737119262</t>
+          <t>2744421711</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>18/04/2024</t>
+          <t>28/06/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2205,22 +2205,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>34018-108</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rua das Bromélias</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>1114</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Village Terrasse II</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2235,60 +2235,60 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>430</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>R$ 11.900.000</t>
+          <t>R$ 1.650.000</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>R$ 1.550</t>
+          <t>R$ 1.065</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>R$ 4.110</t>
+          <t>R$ 2.856</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-village-terrasse-ii-nova-lima-800m2-id-2708746937/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-430m2-id-2725048757/</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2708746937</t>
+          <t>2725048757</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21/08/2024</t>
+          <t>19/12/2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2298,22 +2298,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>34008-083</t>
+          <t>34018-140</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rua Noite de Estio</t>
+          <t>Alameda dos Rios</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Condominio Vale dos Cristais</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2343,45 +2343,45 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>568</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>R$ 11.900.000</t>
+          <t>R$ 3.490.000</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>R$ 2.958</t>
+          <t>R$ 800</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>R$ 4.327</t>
+          <t>R$ 280</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>SO MANSOES IMOBILIARIA</t>
+          <t>V12 NEGÓCIOS IMOBILIÁRIOS</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-vale-dos-cristais-nova-lima-526m2-id-2736485229/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-568m2-id-2600530880/</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2736485229</t>
+          <t>2600530880</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>24/07/2024</t>
+          <t>14/10/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>33669</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2436,23 +2436,23 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>257</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>R$ 2.990.000</t>
+          <t>R$ 3.350.000</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>R$ 1.146</t>
+          <t>R$ 832</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>R$ 2.896</t>
+          <t>R$ 1.890</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2462,19 +2462,19 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-440m2-id-2730513203/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-257m2-id-2749248959/</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2730513203</t>
+          <t>2749248959</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04/05/2024</t>
+          <t>22/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2484,22 +2484,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>34007-070</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rua Grandolfo</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>997</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vila Castela</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2529,45 +2529,45 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>600</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>R$ 4.980.000</t>
+          <t>R$ 7.390.000</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>R$ 1.680</t>
+          <t>R$ 1.387</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>R$ 5.795</t>
+          <t>R$ 2.456</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>MIRIAN DAYRELL IMOVEIS</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-castela-nova-lima-348m2-id-2712545604/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-600m2-id-2730017635/</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2712545604</t>
+          <t>2730017635</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>31/08/2024</t>
+          <t>30/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2577,12 +2577,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>34003-085</t>
+          <t>34007-628</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rua Aldebaran</t>
+          <t>Rua Mackenzie</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Condominio Quintas do Sol</t>
+          <t>Jardim Canada</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2612,55 +2612,55 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>436</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>R$ 3.250.000</t>
+          <t>R$ 2.200.000</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>R$ 1</t>
+          <t>não informado</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>R$ 6.880</t>
+          <t>R$ 3.000</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Mafuz Imóveis de Luxo</t>
+          <t>La Terra Imóveis</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-quintas-do-sol-nova-lima-580m2-id-2738901224/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-jardim-canada-nova-lima-436m2-id-2746127294/</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2738901224</t>
+          <t>2746127294</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>24/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>34004-510</t>
+          <t>34004-306</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rua Aroeira</t>
+          <t>Alameda das Gralhas</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mirante da Mata</t>
+          <t>Residencial Sul</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2715,45 +2715,45 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>557</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>R$ 2.095.000</t>
+          <t>R$ 2.900.000</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>R$ 850</t>
+          <t>R$ 572</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>R$ 140</t>
+          <t>R$ 2.365</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>MORATO IMÓVEIS</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-mirante-da-mata-nova-lima-290m2-id-2631064903/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-residencial-sul-nova-lima-557m2-id-2730421620/</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2631064903</t>
+          <t>2730421620</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>21/09/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2763,22 +2763,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>34007-215</t>
+          <t>34003-067</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Alameda Serra do Cabral</t>
+          <t>Rua Alfa</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>8889</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vila del Rey</t>
+          <t>Condominio Quintas do Sol</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2798,55 +2798,55 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>620</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>R$ 6.800.000</t>
+          <t>R$ 5.950.000</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>R$ 1.240</t>
+          <t>R$ 600</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>R$ 310</t>
+          <t>R$ 2.100</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>ANUAR DONATO</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-del-rey-nova-lima-776m2-id-2744067682/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-quintas-do-sol-nova-lima-620m2-id-2741659768/</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>2744067682</t>
+          <t>2741659768</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>10/05/2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2856,12 +2856,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>34008-092</t>
+          <t>34007-227</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rua Voz das Flores</t>
+          <t>Praça Pico da Bandeira</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vale dos Cristais</t>
+          <t>Vila del Rey</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2886,56 +2886,60 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>707</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>R$ 14.999.500</t>
+          <t>R$ 4.499.000</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>R$ 1.300</t>
+          <t>R$ 1.631</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>R$ 250</t>
+          <t>R$ 4.208</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>Italo Tobias Negócios Imobiliários</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-680m2-id-2631064090/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-vila-del-rey-nova-lima-707m2-id-2562224010/</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>2631064090</t>
+          <t>2562224010</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>09/10/2024</t>
+          <t>21/08/2023</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2945,22 +2949,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>34018-004</t>
+          <t>34007-082</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Avenida Picadilly</t>
+          <t>Avenida Reis Magos</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8889</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Alphaville Lagoa Dos Ingleses</t>
+          <t>Vila Castela</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2985,50 +2989,50 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>800</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>R$ 4.690.000</t>
+          <t>R$ 11.500.000</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>R$ 832</t>
+          <t>R$ 1.900</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>R$ 1.800</t>
+          <t>R$ 250</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>Antônio Jorge Salum Junior</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-401m2-id-2748184598/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-vila-castela-nova-lima-800m2-id-2650949370/</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2748184598</t>
+          <t>2650949370</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>21/06/2023</t>
+          <t>18/10/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3048,7 +3052,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>968</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3068,38 +3072,38 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>700</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>R$ 4.980.000</t>
+          <t>R$ 14.500.000</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>R$ 1.100</t>
+          <t>R$ 1.388</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>R$ 396</t>
+          <t>R$ 5.800</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3109,19 +3113,19 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-alphaville-lagoa-dos-ingleses-nova-lima-406m2-id-2639712915/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-700m2-id-2750244396/</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>2639712915</t>
+          <t>2750244396</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>24/09/2024</t>
+          <t>10/05/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3131,22 +3135,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>34008-056</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rua Mares de Montanhas</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vale dos Cristais</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3176,45 +3180,45 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>271</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>R$ 9.500.000</t>
+          <t>R$ 2.750.000</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>R$ 2.958</t>
+          <t>R$ 832</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>R$ 4.211</t>
+          <t>R$ 2.028</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>SO MANSOES IMOBILIARIA</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-415m2-id-2744641852/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-academia-alphaville-lagoa-dos-ingleses-nova-lima-271m2-id-2713870172/</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>2744641852</t>
+          <t>2713870172</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>08/05/2023</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3224,22 +3228,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>34008-056</t>
+          <t>34007-349</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rua Mares de Montanhas</t>
+          <t>Rua das Codornas</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vale dos Cristais</t>
+          <t>Estancia Serrana</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3264,50 +3268,50 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>474</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>R$ 5.800.000</t>
+          <t>R$ 3.499.980</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>R$ 2.300</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>R$ 45.882</t>
+          <t>R$ 534</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Borges Camelo - Buritis</t>
+          <t>TWA INVESTIMENTOS</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-415m2-id-2687476715/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-estancia-serrana-nova-lima-474m2-id-2631063406/</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2687476715</t>
+          <t>2631063406</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3317,22 +3321,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>34009-559</t>
+          <t>34007-076</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Alameda do Luar</t>
+          <t>Rua San Marino</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>1191</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pasárgada</t>
+          <t>Vila Castela</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3357,43 +3361,43 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>519</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>R$ 1.748.000</t>
+          <t>R$ 9.800.000</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>R$ 650</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>R$ 100</t>
+          <t>R$ 3.080</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>SO MANSOES IMOBILIARIA</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-varanda-pasargada-nova-lima-240m2-id-2631061791/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-castela-nova-lima-519m2-id-2741692119/</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2631061791</t>
+          <t>2741692119</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3497,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>26/04/2024</t>
+          <t>08/05/2023</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3503,22 +3507,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>34018-004</t>
+          <t>34004-510</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Avenida Picadilly</t>
+          <t>Rua Aroeira</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Alphaville Lagoa Dos Ingleses</t>
+          <t>Mirante da Mata</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3533,60 +3537,60 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>290</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>R$ 6.290.000</t>
+          <t>R$ 2.095.000</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>R$ 860</t>
+          <t>R$ 850</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>R$ 3.130</t>
+          <t>R$ 140</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>TWA INVESTIMENTOS</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-500m2-id-2710991697/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-mirante-da-mata-nova-lima-290m2-id-2631064903/</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>2710991697</t>
+          <t>2631064903</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>08/10/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3596,22 +3600,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34018-108</t>
+          <t>34007-298</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rua das Bromélias</t>
+          <t>Alameda São Bernardo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Condomínio Village Terrasse</t>
+          <t>Vila Alpina</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3626,7 +3630,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3636,50 +3640,50 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>463</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>R$ 5.700.000</t>
+          <t>R$ 5.200.000</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>R$ 1.400</t>
+          <t>R$ 1.490</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>R$ 200</t>
+          <t>R$ 2.800</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>SO MANSOES IMOBILIARIA</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-village-terrasse-i-nova-lima-460m2-id-2631065742/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vila-alpina-nova-lima-463m2-id-2747912298/</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>2631065742</t>
+          <t>2747912298</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>06/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3689,22 +3693,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>34009-254</t>
+          <t>34003-067</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Alameda das Candeias</t>
+          <t>Rua Alfa</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Macacos</t>
+          <t>Condominio Quintas do Sol</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3724,7 +3728,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3734,45 +3738,45 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>384</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>R$ 750.000</t>
+          <t>R$ 3.700.000</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 1.500</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 980</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Bens de Raiz Imoveis</t>
+          <t>Vera Castro</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-parque-jardim-amanda-nova-lima-282m2-id-2749313849/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-quintas-do-sol-nova-lima-384m2-id-2740313122/</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>2749313849</t>
+          <t>2740313122</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22/09/2024</t>
+          <t>26/06/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3782,22 +3786,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>34011-093</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Avenida Quinta Avenida</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vale do Sol</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3812,60 +3816,60 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>749</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>R$ 1.099.680</t>
+          <t>R$ 9.500.000</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>R$ 1</t>
+          <t>R$ 1.367</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>R$ 1</t>
+          <t>R$ 3.568</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>USUÁRIO NEWCORE</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-vale-do-sol-nova-lima-254m2-id-2744261184/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-749m2-id-2724497854/</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>2744261184</t>
+          <t>2724497854</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>31/07/2024</t>
+          <t>25/04/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3875,17 +3879,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>34018-034</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Alameda dos Inconfidentes</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>461</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3910,55 +3914,55 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>424</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>R$ 4.800.000</t>
+          <t>R$ 4.750.000</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 1.146</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 3.500</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>MORATO IMÓVEIS</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-468m2-id-2731910630/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-424m2-id-2710769199/</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>2731910630</t>
+          <t>2710769199</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>21/08/2023</t>
+          <t>08/05/2023</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3968,22 +3972,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>34012-094</t>
+          <t>34008-092</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rua Vereda da Primavera</t>
+          <t>Rua Voz das Flores</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Veredas das Geraes</t>
+          <t>Vale dos Cristais</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4001,57 +4005,53 @@
           <t>4</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>680</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>R$ 2.890.000</t>
+          <t>R$ 14.999.500</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>R$ 850</t>
+          <t>R$ 1.300</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>R$ 608</t>
+          <t>R$ 250</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>CRX Imóveis</t>
+          <t>TWA INVESTIMENTOS</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-veredas-das-geraes-nova-lima-350m2-id-2651022040/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-680m2-id-2631064090/</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>2651022040</t>
+          <t>2631064090</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>19/07/2024</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4061,17 +4061,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>34018-006</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Avenida Princesa Diana</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>inexistente</t>
+          <t>194</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4101,50 +4101,50 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>340</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>R$ 9.950.000</t>
+          <t>R$ 3.250.000</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>R$ 1.249</t>
+          <t>R$ 830</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>R$ 3.593</t>
+          <t>R$ 300</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>MORATO IMÓVEIS</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-760m2-id-2729448734/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-alphaville-lagoa-dos-ingleses-nova-lima-340m2-id-2568048405/</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2729448734</t>
+          <t>2568048405</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20/06/2024</t>
+          <t>18/09/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>8622</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -4199,23 +4199,23 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>326</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>R$ 3.900.000</t>
+          <t>R$ 2.950.000</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>R$ 1.100</t>
+          <t>R$ 866</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>R$ 2.300</t>
+          <t>R$ 2.800</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -4225,19 +4225,19 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-443m2-id-2723126335/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-326m2-id-2743254460/</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>2723126335</t>
+          <t>2743254460</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>03/07/2024</t>
+          <t>13/08/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4247,12 +4247,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>34018-004</t>
+          <t>Nao encontrado</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Avenida Picadilly</t>
+          <t>Balneario Água Limpa</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Alphaville Lagoa Dos Ingleses</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -4277,60 +4277,60 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>400</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>R$ 3.990.000</t>
+          <t>R$ 2.300.000</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>R$ 1.200</t>
+          <t>R$ 650</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>R$ 25</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>C10 imóveis Ltda</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-420m2-id-2726014070/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-jardim-canada-nova-lima-400m2-id-2734702856/</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>2726014070</t>
+          <t>2734702856</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>24/09/2024</t>
+          <t>26/04/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>636363</t>
+          <t>812</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4370,38 +4370,38 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>500</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>R$ 4.990.000</t>
+          <t>R$ 6.290.000</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>R$ 1.345</t>
+          <t>R$ 860</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>R$ 2.896</t>
+          <t>R$ 3.130</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -4411,19 +4411,19 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-367m2-id-2744641401/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-500m2-id-2710991697/</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>2744641401</t>
+          <t>2710991697</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>02/05/2024</t>
+          <t>03/07/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4433,22 +4433,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>34018-273</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Rua dos Motoristas</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ville Des Lacs</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4468,55 +4468,55 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>420</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>R$ 2.450.000</t>
+          <t>R$ 3.990.000</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>R$ 550</t>
+          <t>R$ 1.200</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>R$ 1.980</t>
+          <t>R$ 25</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>TWA INVESTIMENTOS</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-area-de-lazer-balneario-agua-limpa-nova-lima-300m2-id-2712205526/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-420m2-id-2726014070/</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2712205526</t>
+          <t>2726014070</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>21/08/2023</t>
+          <t>02/05/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4526,90 +4526,90 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>34007-082</t>
+          <t>34018-273</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Avenida Reis Magos</t>
+          <t>Rua dos Motoristas</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Ville Des Lacs</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Vila Castela</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Nova Lima</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>300</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>R$ 11.500.000</t>
+          <t>R$ 2.450.000</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>R$ 1.900</t>
+          <t>R$ 550</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>R$ 250</t>
+          <t>R$ 1.980</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Antônio Jorge Salum Junior</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-vila-castela-nova-lima-mg-800m2-id-2650949370/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-area-de-lazer-balneario-agua-limpa-nova-lima-300m2-id-2712205526/</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>2650949370</t>
+          <t>2712205526</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>28/10/2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4619,22 +4619,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>34007-294</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Avenida Alpina</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vila Alpina</t>
+          <t>Alphaville Lagoa Dos Ingleses</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4654,55 +4654,55 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>293</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>R$ 4.837.000</t>
+          <t>R$ 3.780.000</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>R$ 1.390</t>
+          <t>R$ 832</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>R$ 260</t>
+          <t>R$ 1.143</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Corretores Net</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-alpina-nova-lima-1400m2-id-2697575805/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-293m2-id-2588468170/</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>2697575805</t>
+          <t>2588468170</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4712,22 +4712,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>34015-050</t>
+          <t>34007-215</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Alameda do Paraíso</t>
+          <t>Alameda Serra do Cabral</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Jardim Petrópolis</t>
+          <t>Vila del Rey</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4747,55 +4747,55 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>900</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>R$ 1.980.000</t>
+          <t>R$ 3.400.000</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>R$ 550</t>
+          <t>R$ 1.200</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>R$ 4.332</t>
+          <t>R$ 7.517</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Pactuar Negócios Imobiliários Eireli</t>
+          <t>JOSÉ SILVIO DE ANDRADE FILHO</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-green-park-nova-lima-552m2-id-2661984460/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-vila-del-rey-nova-lima-900m2-id-2679007401/</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>2661984460</t>
+          <t>2679007401</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>16/08/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>34007-349</t>
+          <t>34003-082</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rua das Codornas</t>
+          <t>Rua Antares</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Estancia Serrana</t>
+          <t>Condominio Quintas do Sol</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4835,60 +4835,60 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>590</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>R$ 3.499.980</t>
+          <t>R$ 4.550.000</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>isento</t>
+          <t>R$ 1.050</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>R$ 534</t>
+          <t>R$ 4.965</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>Mafuz Imóveis de Luxo</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-estancia-serrana-nova-lima-474m2-id-2631063406/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-quintas-do-sol-nova-lima-590m2-id-2735492229/</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2631063406</t>
+          <t>2735492229</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>22/07/2024</t>
+          <t>25/04/2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4898,17 +4898,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>34018-000</t>
+          <t>34018-004</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Avenida Regent</t>
+          <t>Avenida Picadilly</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>528</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4928,27 +4928,27 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>394</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>R$ 2.800.000</t>
+          <t>R$ 3.990.000</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -4959,29 +4959,29 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>R$ 476</t>
+          <t>R$ 2.100</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>REALIZA IMOVEIS</t>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-mg-350m2-id-2730056625/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-394m2-id-2710837200/</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>2730056625</t>
+          <t>2710837200</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>09/10/2024</t>
+          <t>21/08/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4991,22 +4991,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>34018-004</t>
+          <t>34008-101</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Avenida Picadilly</t>
+          <t>Rua Tarde no Planeta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>9687</t>
+          <t>1171</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Alphaville Lagoa Dos Ingleses</t>
+          <t>Condominio Vale dos Cristais</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -5021,12 +5021,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -5036,45 +5036,45 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>760</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>R$ 1.980.000</t>
+          <t>R$ 18.500.000</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>R$ 1.165</t>
+          <t>R$ 2.958</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>R$ 2.900</t>
+          <t>R$ 6.074</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+          <t>SO MANSOES IMOBILIARIA</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-jardim-alphaville-lagoa-dos-ingleses-nova-lima-264m2-id-2748119304/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-dos-cristais-nova-lima-760m2-id-2736487243/</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>2748119304</t>
+          <t>2736487243</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>16/08/2024</t>
+          <t>27/08/2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5084,12 +5084,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>34007-085</t>
+          <t>34004-840</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rua Granada</t>
+          <t>Alameda Perimetral das Orquídeas</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vila Castela</t>
+          <t>Bosque Residencial do Jambreiro</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -5129,38 +5129,38 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>750</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>R$ 5.950.000</t>
+          <t>R$ 5.380.000</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>R$ 1.400</t>
+          <t>R$ 800</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>R$ 400</t>
+          <t>R$ 2.520</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Mafuz Imóveis de Luxo</t>
+          <t>MORATO IMÓVEIS</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-castela-nova-lima-mg-520m2-id-2735489999/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-bosque-residencial-do-jambreiro-nova-lima-750m2-id-2737750725/</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>2735489999</t>
+          <t>2737750725</t>
         </is>
       </c>
     </row>

--- a/dist/imoveis.xlsx
+++ b/dist/imoveis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,4656 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>10/05/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>34007-227</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Praça Pico da Bandeira</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Vila del Rey</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>R$ 4.499.000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>R$ 1.631</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>R$ 4.208</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Italo Tobias Negócios Imobiliários</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-vila-del-rey-nova-lima-707m2-id-2562224010/</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2562224010</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26/06/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>R$ 9.500.000</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>R$ 1.367</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>R$ 3.568</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-749m2-id-2724497854/</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2724497854</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>34018-082</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rua dos Pinheiros</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>R$ 3.690.000</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>R$ 880</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>R$ 1.500</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Danubia Viera Leite Imóveis</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-770m2-id-2683706118/</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2683706118</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>18/04/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>34018-108</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rua das Bromélias</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Village Terrasse II</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>R$ 11.900.000</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>R$ 1.550</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>R$ 4.110</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-village-terrasse-ii-nova-lima-800m2-id-2708746937/</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2708746937</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>34008-056</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Rua Mares de Montanhas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>R$ 11.950.000</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>R$ 2.300</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-680m2-id-2735490670/</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2735490670</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>R$ 8.300.000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>R$ 1.387</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>R$ 654</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-629m2-id-2653488567/</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2653488567</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10/09/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>34003-085</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rua Aldebaran</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1184</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Condominio Quintas do Sol</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>R$ 6.450.000</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>R$ 1.400</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>R$ 3.000</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-quintas-do-sol-nova-lima-640m2-id-2741114168/</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2741114168</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>27/05/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>R$ 7.480.000</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>R$ 1.249</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>R$ 387</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-alphaville-lagoa-dos-ingleses-nova-lima-644m2-id-2635115980/</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2635115980</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>28/03/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>34018-140</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Alameda dos Rios</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>R$ 4.300.000</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>R$ 980</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>R$ 2.100</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Alto Luxo BH</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-602m2-id-2621295226/</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2621295226</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rua dos Beija-Flores</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>R$ 10.800.000</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>R$ 1.890</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>R$ 4.920</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-1100m2-id-2734103751/</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2734103751</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18/04/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>R$ 5.400.000</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>R$ 831</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>R$ 2.540</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-academia-alphaville-lagoa-dos-ingleses-nova-lima-488m2-id-2708950133/</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2708950133</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>34007-294</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Avenida Alpina</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vila Alpina</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>R$ 4.837.000</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>R$ 1.390</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>R$ 260</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Corretores Net</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-alpina-nova-lima-1400m2-id-2697575805/</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2697575805</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>25/04/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>R$ 2.990.000</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>R$ 1.146</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>R$ 2.400</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-270m2-id-2710840328/</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2710840328</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>06/08/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>34004-300</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Alameda das Graúnas</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Residencial Sul</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>R$ 4.500.000</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>R$ 700</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>R$ 1.400</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-residencial-sul-nova-lima-800m2-id-2733209743/</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2733209743</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>30/04/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>R$ 3.990.000</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>R$ 1.100</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>R$ 2.435</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-430m2-id-2711803001/</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2711803001</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36369</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>R$ 5.800.000</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>R$ 1.387</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>R$ 2.968</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-603m2-id-2722892835/</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2722892835</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>08/10/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>34007-298</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Alameda São Bernardo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vila Alpina</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>R$ 5.200.000</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>R$ 1.490</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>R$ 2.800</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vila-alpina-nova-lima-463m2-id-2747912298/</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2747912298</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>23/12/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>34018-034</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Alameda dos Inconfidentes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>R$ 6.500.000</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Imoveis Alto Luxo</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-500m2-id-2678492882/</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2678492882</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>R$ 14.500.000</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>R$ 1.388</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>R$ 5.800</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-700m2-id-2750244396/</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2750244396</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>34018-140</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Alameda dos Rios</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>R$ 3.440.000</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>R$ 770</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>R$ 230</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>ALPHA IMÓVEIS PREMIUM</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-369m2-id-2715390649/</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2715390649</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14/08/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34008-065</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Rua Entre as Árvores</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>R$ 5.600.000</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>R$ 2.900</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>R$ 414</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>MG Sul Consultoria Imobiliária EIRELI ME - ME</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-1530m2-id-2734878824/</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2734878824</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>26/07/2018</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>34007-294</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Avenida Alpina</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Vila Alpina</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>R$ 4.800.000</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>R$ 1.390</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>R$ 3.000</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Zsul Imóveis</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vila-alpina-nova-lima-750m2-id-1039051546/</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>1039051546</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>24/06/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>34007-097</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Rua Toledo</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Vila Castela</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>R$ 8.500.000</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>R$ 1.500</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>R$ 200</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-mobiliado-vila-castela-nova-lima-890m2-id-2640402169/</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2640402169</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>34007-294</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Avenida Alpina</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Vila Alpina</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>R$ 4.900.000</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>R$ 1.642</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>R$ 236</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-alpina-nova-lima-550m2-id-2735492225/</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2735492225</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08/04/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>34004-733</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Alameda das Castanheiras</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ouro Velho Mansões</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>R$ 2.599.000</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>R$ 850</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>R$ 1.501</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>BE SOLUCOES IMOBILIARIAS LTDA</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-ouro-velho-mansoes-nova-lima-1000m2-id-2705257502/</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2705257502</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14/08/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>34018-284</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rua dos Aviadores</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Balneario Água Limpa</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>R$ 2.300.000</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>R$ 650</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>não informado</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>MEL IMOVEIS</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-balneario-agua-limpa-nova-lima-400m2-id-2735051217/</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2735051217</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20/08/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2233</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>R$ 2.990.000</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>R$ 2.030</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-275m2-id-2736224750/</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2736224750</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>34018-108</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Rua das Bromélias</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Condomínio Village Terrasse</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>R$ 5.700.000</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>R$ 1.400</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>R$ 200</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-village-terrasse-i-nova-lima-460m2-id-2631065742/</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2631065742</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>34003-085</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Rua Aldebaran</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Condominio Ville de Montagne</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>R$ 10.700.000</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>R$ 683</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>R$ 100</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Corretores Net</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-quintas-do-sol-nova-lima-2200m2-id-2697576524/</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2697576524</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>23/08/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>34008-095</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Rua Estrela da Manhã</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>R$ 14.700.000</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>R$ 1.720</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>R$ 706</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>IBH IMOVEIS</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-dos-cristais-nova-lima-1200m2-id-2737119262/</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2737119262</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>07/03/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>34018-158</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Rua Paranapanema</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>R$ 2.980.000</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>OPAVENDI IMOBILIÁRIA DESCOMPLICADA LTDAOPAVENDI</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-261m2-id-2617201008/</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2617201008</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>06/08/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>34007-395</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Alameda das Aroeiras</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bosque da Ribeira</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>R$ 3.990.000</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>R$ 840</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>R$ 2.600</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-bosque-da-ribeira-nova-lima-420m2-id-2733211818/</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2733211818</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>34004-306</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Alameda das Gralhas</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Residencial Sul</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>R$ 2.890.000</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>R$ 572</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>R$ 250</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-residencial-sul-nova-lima-650m2-id-2631064942/</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2631064942</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>31/07/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>34018-034</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Alameda dos Inconfidentes</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>R$ 4.800.000</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-468m2-id-2731910630/</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2731910630</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>14/03/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>34012-442</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Rua Rio Doce</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>R$ 4.980.000</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>OPAVENDI IMOBILIÁRIA DESCOMPLICADA LTDAOPAVENDI</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-855m2-id-2618570487/</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2618570487</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>34007-386</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Alameda dos Manacás</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bosque da Ribeira</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>R$ 3.990.000</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>R$ 840</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>R$ 233</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-bosque-da-ribeira-nova-lima-1387m2-id-2735490011/</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2735490011</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>03/05/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Rua Bem-Te-Vi</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Estancia Serrana</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>R$ 2.950.000</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>R$ 950</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>R$ 250</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-estancia-serrana-nova-lima-550m2-id-2712347615/</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2712347615</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>34018-172</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Rua São Francisco</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>R$ 4.390.000</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>R$ 1.190</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>R$ 120</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-450m2-id-2631063376/</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2631063376</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>17/11/2021</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>34003-298</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Rua dos Alpes</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Alto das Quintas</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>R$ 2.090.000</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>R$ 1.040</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Suacasanumclick</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-alto-das-quintas-nova-lima-350m2-id-2541623324/</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2541623324</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>05/02/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>34003-052</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Rua Zênite</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Condominio Quintas do Sol</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>R$ 4.450.000</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>R$ 1.200</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>R$ 250</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>LUXUS IMOVEIS PREMIUM</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-com-piscina-quintas-do-sol-nova-lima-390m2-id-2688542506/</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2688542506</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>R$ 3.900.000</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>R$ 1.100</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>R$ 2.300</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-443m2-id-2723126335/</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2723126335</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Condominio Alphaville</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>R$ 3.490.000</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>R$ 2.117</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-333m2-id-2654802146/</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2654802146</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>29/06/2021</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>34012-020</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Rua Vereda da Mata</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Veredas das Geraes</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>R$ 2.100.000</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>R$ 1.646</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-jardim-veredas-das-geraes-nova-lima-470m2-id-2525447571/</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2525447571</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>25/04/2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>R$ 4.750.000</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>R$ 1.146</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>R$ 3.500</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-424m2-id-2710769199/</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2710769199</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>07/08/2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>34007-970</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Avenida Toronto</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Jardim Canada</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>R$ 750.000</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Jefferson E. O. Motta</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-jardim-canada-nova-lima-380m2-id-2733497529/</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2733497529</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>27/08/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>34001-319</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Rua Amazonas</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>R$ 7.800.000</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>R$ 3.360</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-666m2-id-2737751233/</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2737751233</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>13/09/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>R$ 7.990.000</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>R$ 2.450</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-545m2-id-2741997011/</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>2741997011</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>08/01/2021</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>34004-890</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Alameda de Aldebaran</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Condominio Ville de Montagne</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>R$ 10.700.000</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>R$ 4.066</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-ville-de-montagne-nova-lima-2200m2-id-2507257278/</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2507257278</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>08/11/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>34008-056</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Rua Mares de Montanhas</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>R$ 12.900.000</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>R$ 2.000</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>R$ 400</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>LUXUS IMOVEIS PREMIUM</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-850m2-id-2667984443/</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>2667984443</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>11/03/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>34007-215</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Alameda Serra do Cabral</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Vila del Rey</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>R$ 4.499.000</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>R$ 1.380</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>R$ 450</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Corretores Net</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-del-rey-nova-lima-3000m2-id-2697411488/</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>2697411488</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
